--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1665332.496890289</v>
+        <v>1662997.38568831</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>86.7114856347289</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>182.9377227717322</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>74.43987397211012</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>90.40230593682848</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>61.3800592859501</v>
+        <v>113.2950864705992</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>120.33325546674</v>
+        <v>159.5817891454358</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>384.3016692915916</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>112.0789181391344</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>63.13355668550192</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>104.8913819999782</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>68.57766702465427</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.019807611472022</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699798</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3433,7 +3433,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,13 +3664,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3904,13 +3904,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.07916359105417</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2175.739488336033</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C2" t="n">
-        <v>1806.776971395622</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D2" t="n">
-        <v>1448.511272788871</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E2" t="n">
-        <v>1062.723020190627</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F2" t="n">
-        <v>651.7371154010195</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G2" t="n">
-        <v>236.0323651253084</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>2562.339328400155</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4410,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>638.3296170496764</v>
       </c>
       <c r="M3" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C4" t="n">
-        <v>473.8272960668249</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1561.254328183477</v>
       </c>
       <c r="T4" t="n">
-        <v>1245.91850520769</v>
+        <v>1338.275847378213</v>
       </c>
       <c r="U4" t="n">
-        <v>1245.91850520769</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="V4" t="n">
-        <v>991.2340170018028</v>
+        <v>1049.15750988205</v>
       </c>
       <c r="W4" t="n">
-        <v>701.8168469648423</v>
+        <v>759.7403398450897</v>
       </c>
       <c r="X4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.8272960668249</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1251.460966789571</v>
+        <v>862.4791652013141</v>
       </c>
       <c r="C5" t="n">
-        <v>882.4984498491592</v>
+        <v>862.4791652013141</v>
       </c>
       <c r="D5" t="n">
-        <v>524.2327512424088</v>
+        <v>862.4791652013141</v>
       </c>
       <c r="E5" t="n">
-        <v>524.2327512424088</v>
+        <v>476.6909126030699</v>
       </c>
       <c r="F5" t="n">
-        <v>113.2468464528012</v>
+        <v>469.7454118538664</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800312</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362831</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816097</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664336</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320765</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050651</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X5" t="n">
-        <v>1251.460966789571</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.460966789571</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>238.4273302370161</v>
@@ -4653,19 +4653,19 @@
         <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312198</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T7" t="n">
-        <v>1514.8973771788</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="U7" t="n">
-        <v>1225.779039682638</v>
+        <v>1372.668987180548</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>1117.984498974661</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>828.5673289377006</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>600.5777780396833</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1616.654488422266</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.691971481854</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>889.4262728751035</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>503.6380202768592</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>496.6925195276557</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2766.859418723279</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2393.393660462199</v>
+        <v>1958.764357757271</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.254328486387</v>
+        <v>1958.764357757271</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4887,16 +4887,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>278.1964793938714</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>130.2833858114783</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1767.918581386758</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>459.8449442241111</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>114.2598873597751</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>448.1846595309957</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>943.5102657467545</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400712</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>599.6019060180513</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>451.6888124356582</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>304.7988649377478</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5470,16 +5470,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,13 +5528,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5598,16 +5598,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297696</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,13 +5741,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,13 +5759,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5890,19 +5890,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6680,40 +6680,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6871,37 +6871,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
         <v>93.81666304797187</v>
@@ -7333,49 +7333,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038327</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1140.291933891999</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1767.889897446606</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7625,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,31 +7664,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8061,13 +8061,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>45.76488231024587</v>
       </c>
       <c r="M3" t="n">
-        <v>255.5240487471574</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,22 +8301,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>154.0169020165192</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>41.54258064659096</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>96.94647126761457</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345295147</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,13 +25552,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25792,13 +25792,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041668</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041668</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895790.5312041671</v>
+        <v>895790.5312041669</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>895790.5312041669</v>
+        <v>895790.5312041671</v>
       </c>
     </row>
     <row r="12">
@@ -26314,19 +26314,19 @@
         <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="H2" t="n">
         <v>524645.2897985039</v>
@@ -26344,16 +26344,16 @@
         <v>524645.2897985041</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985041</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>48293.97000819071</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26421,22 +26421,22 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309554</v>
+        <v>87914.29116309558</v>
       </c>
       <c r="E4" t="n">
+        <v>8727.256391744284</v>
+      </c>
+      <c r="F4" t="n">
         <v>8727.256391744282</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8727.256391744284</v>
       </c>
       <c r="G4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="H4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="I4" t="n">
-        <v>8727.256391744295</v>
+        <v>8727.256391744282</v>
       </c>
       <c r="J4" t="n">
         <v>8727.256391744284</v>
@@ -26445,19 +26445,19 @@
         <v>8727.256391744282</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
       <c r="M4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="N4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="O4" t="n">
         <v>8727.256391744284</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744284</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809534.5425809636</v>
+        <v>-809534.5425809633</v>
       </c>
       <c r="C6" t="n">
-        <v>305217.2409949566</v>
+        <v>305217.2409949565</v>
       </c>
       <c r="D6" t="n">
-        <v>145201.7782469576</v>
+        <v>145201.7782469575</v>
       </c>
       <c r="E6" t="n">
-        <v>89383.04177549742</v>
+        <v>89348.30385006136</v>
       </c>
       <c r="F6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.765657417</v>
       </c>
       <c r="G6" t="n">
-        <v>414795.5035828523</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="H6" t="n">
-        <v>414795.5035828524</v>
+        <v>414760.7656574167</v>
       </c>
       <c r="I6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="J6" t="n">
-        <v>247190.32577287</v>
+        <v>247155.5878474343</v>
       </c>
       <c r="K6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="L6" t="n">
-        <v>366501.5335746619</v>
+        <v>366466.7956492262</v>
       </c>
       <c r="M6" t="n">
-        <v>329740.4756473406</v>
+        <v>329705.7377219049</v>
       </c>
       <c r="N6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574168</v>
       </c>
       <c r="O6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.765657417</v>
       </c>
       <c r="P6" t="n">
-        <v>414795.5035828525</v>
+        <v>414760.7656574166</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26790,13 +26790,13 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>267.9715559859541</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>118.0808297906732</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>27.11769844746351</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>130.3463900603834</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>350.1676434870039</v>
+        <v>298.2526163023548</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>100.415440530472</v>
+        <v>61.16690685177616</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>26.62005636186183</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>102.8922515735263</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-2.163473208342858e-13</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929657</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,19 +32318,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,31 +33020,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,7 +33977,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>163.1438255932938</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>343.4452429480961</v>
       </c>
       <c r="M3" t="n">
-        <v>622.455381029198</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,22 +35021,22 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>535.6747904601048</v>
       </c>
       <c r="N6" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>489.4415840126422</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629905</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,31 +36668,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37625,7 +37625,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>20.54758114884936</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096333</v>
       </c>
       <c r="L40" t="n">
         <v>394.3420143191314</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
